--- a/xlsx/文化_intext.xlsx
+++ b/xlsx/文化_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
   <si>
     <t>文化</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96_(%E5%B9%B4%E8%99%9F)</t>
   </si>
   <si>
-    <t>文化 (年號)</t>
+    <t>文化 (年号)</t>
   </si>
   <si>
     <t>政策_政策_政治_文化</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%B3%AA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>體質人類學</t>
+    <t>体质人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -53,49 +53,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言人類學</t>
+    <t>语言人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會人類學</t>
+    <t>社会人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用人類學</t>
+    <t>应用人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
   </si>
   <si>
-    <t>民族誌</t>
+    <t>民族志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%88%87%E8%A7%80%E5%AF%9F</t>
   </si>
   <si>
-    <t>參與觀察</t>
+    <t>参与观察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>文化相對論</t>
+    <t>文化相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E5%8F%B2</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>人類演化</t>
+    <t>人类演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
   </si>
   <si>
-    <t>親屬</t>
+    <t>亲属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%A7%BB</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>物質文化</t>
+    <t>物质文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>性別</t>
+    <t>性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
   </si>
   <si>
-    <t>社會化</t>
+    <t>社会化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>殖民主義</t>
+    <t>殖民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態人類學</t>
+    <t>生态人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟人類學</t>
+    <t>经济人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>民族學</t>
+    <t>民族学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8C%BB%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -197,37 +197,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>媒體人類學</t>
+    <t>媒体人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫療人類學</t>
+    <t>医疗人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市人類學</t>
+    <t>都市人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>視覺人類學</t>
+    <t>视觉人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>歷史人類學</t>
+    <t>历史人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>人類學史</t>
+    <t>人类学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>哲學家</t>
+    <t>哲学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BE%85</t>
   </si>
   <si>
-    <t>西塞羅</t>
+    <t>西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
@@ -269,33 +269,30 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>經驗</t>
+    <t>经验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>環境</t>
+    <t>环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>自然環境</t>
+    <t>自然环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>潛意識</t>
+    <t>潜意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%A6</t>
   </si>
   <si>
-    <t>考古学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E</t>
   </si>
   <si>
@@ -317,55 +314,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>個人</t>
+    <t>个人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>組織</t>
+    <t>组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E7%B6%B2%E8%B7%AF%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>社群網路服務</t>
+    <t>社群网路服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E8%AA%BC</t>
   </si>
   <si>
-    <t>友誼</t>
+    <t>友谊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B7%A3</t>
   </si>
   <si>
-    <t>血緣</t>
+    <t>血缘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>社群意識</t>
+    <t>社群意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>網絡文化</t>
+    <t>网络文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%BA%90%E5%AD%B8</t>
   </si>
   <si>
-    <t>語源學</t>
+    <t>语源学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B2</t>
@@ -401,9 +398,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
   </si>
   <si>
-    <t>社会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
   </si>
   <si>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E5%90%91</t>
   </si>
   <si>
-    <t>劉向</t>
+    <t>刘向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%8B%E6%9C%9D</t>
@@ -497,25 +491,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%80%9D%E6%83%B3</t>
   </si>
   <si>
-    <t>中華思想</t>
+    <t>中华思想</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>中國文化</t>
+    <t>中国文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>拉丁語系</t>
+    <t>拉丁语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E6%99%AE%E8%8A%AC%E9%81%93%E5%A4%AB</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>物質</t>
+    <t>物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6</t>
@@ -545,13 +539,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E4%BF%97</t>
   </si>
   <si>
-    <t>習俗</t>
+    <t>习俗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3</t>
@@ -581,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -599,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>藝術</t>
+    <t>艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E7%A4%BE%E4%BC%9A</t>
@@ -647,9 +638,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
   </si>
   <si>
-    <t>哲学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -677,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>動物學</t>
+    <t>动物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%95%86</t>
@@ -689,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E9%B4%89</t>
   </si>
   <si>
-    <t>渡鴉</t>
+    <t>渡鸦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%8E%E9%AF%A8</t>
   </si>
   <si>
-    <t>虎鯨</t>
+    <t>虎鲸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%96%87%E5%8C%96</t>
@@ -713,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%B5</t>
   </si>
   <si>
-    <t>象徵</t>
+    <t>象征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E9%81%93%E9%87%91%E6%96%AF</t>
@@ -737,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96</t>
@@ -749,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E8%A3%BD</t>
   </si>
   <si>
-    <t>複製</t>
+    <t>复制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E4%BB%BF</t>
@@ -761,13 +749,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>無產階級</t>
+    <t>无产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%93%87</t>
   </si>
   <si>
-    <t>天擇</t>
+    <t>天择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8B%E5%8A%BF</t>
@@ -785,19 +773,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%BA%AB%E5%85%8B</t>
   </si>
   <si>
-    <t>詹姆斯·庫克</t>
+    <t>詹姆斯·库克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>社會結構</t>
+    <t>社会结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_movement</t>
@@ -809,19 +797,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>冰河時期</t>
+    <t>冰河时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E6%97%8F</t>
   </si>
   <si>
-    <t>土庫曼族</t>
+    <t>土库曼族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%8C%85</t>
@@ -833,19 +818,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B4%E6%95%A3_(%E4%BA%BA%E9%A1%9E%E5%AD%B8)</t>
   </si>
   <si>
-    <t>擴散 (人類學)</t>
+    <t>扩散 (人类学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>漢堡</t>
+    <t>汉堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0%E6%93%B4%E6%95%A3</t>
   </si>
   <si>
-    <t>創新擴散</t>
+    <t>创新扩散</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B5%E5%8C%96</t>
@@ -875,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>赫爾德</t>
+    <t>赫尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%BE%B7</t>
@@ -935,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>希臘文化</t>
+    <t>希腊文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>古羅馬文化</t>
+    <t>古罗马文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E6%AF%94%E4%BC%A6</t>
@@ -965,9 +950,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>中国文化</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6%E6%96%87%E5%8C%96</t>
   </si>
   <si>
@@ -1001,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>東方文化</t>
+    <t>东方文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D%E7%9A%84%E8%BF%B7%E6%80%9D</t>
@@ -1025,13 +1007,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
   </si>
   <si>
-    <t>人类学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Culturology</t>
@@ -1127,19 +1106,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E5%9E%8B%E6%85%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>生活型態列表</t>
+    <t>生活型态列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>文化資本</t>
+    <t>文化资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>文化衝突</t>
+    <t>文化冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E9%81%97%E4%BA%A7</t>
@@ -1151,19 +1130,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>文化認同</t>
+    <t>文化认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%8D%80</t>
   </si>
   <si>
-    <t>文化區</t>
+    <t>文化区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%83%85%E5%A2%83%E6%96%87%E5%8C%96%E8%88%87%E4%BD%8E%E6%83%85%E5%A2%83%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>高情境文化與低情境文化</t>
+    <t>高情境文化与低情境文化</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transculturation</t>
@@ -1181,13 +1160,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E9%9C%B8%E6%AC%8A</t>
   </si>
   <si>
-    <t>文化霸權</t>
+    <t>文化霸权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>文化帝國主義</t>
+    <t>文化帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E6%88%98%E4%BA%89</t>
@@ -1211,19 +1190,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>多元文化主義</t>
+    <t>多元文化主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%9E%E7%9C%BE%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>從眾行為</t>
+    <t>从众行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%B7%AE%E7%95%B0</t>
   </si>
   <si>
-    <t>文化差異</t>
+    <t>文化差异</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E9%A9%AC%E8%B5%9B%E5%85%8B</t>
@@ -1253,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>文化工業</t>
+    <t>文化工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%86%B2%E5%87%BB</t>
@@ -2941,7 +2920,7 @@
         <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2967,10 +2946,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>8</v>
@@ -2996,10 +2975,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>13</v>
@@ -3025,10 +3004,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3054,10 +3033,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3083,10 +3062,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
@@ -3112,10 +3091,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3141,10 +3120,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3170,10 +3149,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3199,10 +3178,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3228,10 +3207,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3257,10 +3236,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3286,10 +3265,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -3315,10 +3294,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3344,10 +3323,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3373,10 +3352,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3402,10 +3381,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3431,10 +3410,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>14</v>
@@ -3460,10 +3439,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="G64" t="n">
         <v>20</v>
@@ -3489,10 +3468,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3518,10 +3497,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>10</v>
@@ -3547,10 +3526,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3576,10 +3555,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3605,10 +3584,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3634,10 +3613,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3663,10 +3642,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3692,10 +3671,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3721,10 +3700,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3750,10 +3729,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3779,10 +3758,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3808,10 +3787,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3837,10 +3816,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3866,10 +3845,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3895,10 +3874,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3924,10 +3903,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3953,10 +3932,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -3982,10 +3961,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4011,10 +3990,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4040,10 +4019,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4069,10 +4048,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -4098,10 +4077,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>9</v>
@@ -4127,10 +4106,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>7</v>
@@ -4156,10 +4135,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -4185,10 +4164,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4214,10 +4193,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
@@ -4243,10 +4222,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4272,10 +4251,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4301,10 +4280,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4330,10 +4309,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -4359,10 +4338,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4388,10 +4367,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>8</v>
@@ -4417,10 +4396,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>6</v>
@@ -4446,10 +4425,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4475,10 +4454,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4504,10 +4483,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4533,10 +4512,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4562,10 +4541,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -4591,10 +4570,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4620,10 +4599,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4649,10 +4628,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
@@ -4678,10 +4657,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4707,10 +4686,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4736,10 +4715,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4794,10 +4773,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4823,10 +4802,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4852,10 +4831,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4881,10 +4860,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4910,10 +4889,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4939,10 +4918,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4968,10 +4947,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4997,10 +4976,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>6</v>
@@ -5026,10 +5005,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5055,10 +5034,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5084,10 +5063,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5113,10 +5092,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5142,10 +5121,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>4</v>
@@ -5171,10 +5150,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5200,10 +5179,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5229,10 +5208,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5258,10 +5237,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5287,10 +5266,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5316,10 +5295,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5345,10 +5324,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5374,10 +5353,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5403,10 +5382,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5432,10 +5411,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5461,10 +5440,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5490,10 +5469,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5519,10 +5498,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5548,10 +5527,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5577,10 +5556,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5606,10 +5585,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5635,10 +5614,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5664,10 +5643,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5693,10 +5672,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5722,10 +5701,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5751,10 +5730,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5780,10 +5759,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -5809,10 +5788,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -5838,10 +5817,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>7</v>
@@ -5867,10 +5846,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5896,10 +5875,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5925,10 +5904,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5954,10 +5933,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5983,10 +5962,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6012,10 +5991,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6041,10 +6020,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6070,10 +6049,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6099,10 +6078,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6128,10 +6107,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6157,10 +6136,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6186,10 +6165,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6215,10 +6194,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>160</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6244,10 +6223,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6273,10 +6252,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6302,10 +6281,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6331,10 +6310,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6360,10 +6339,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6389,10 +6368,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6418,10 +6397,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6447,10 +6426,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6476,10 +6455,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6505,10 +6484,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="G169" t="n">
         <v>7</v>
@@ -6534,10 +6513,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6563,10 +6542,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6592,10 +6571,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6621,10 +6600,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6650,10 +6629,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6679,10 +6658,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6708,10 +6687,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6737,10 +6716,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6766,10 +6745,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6795,10 +6774,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6824,10 +6803,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6853,10 +6832,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6882,10 +6861,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6911,10 +6890,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6940,10 +6919,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -6969,10 +6948,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6998,10 +6977,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>4</v>
@@ -7027,10 +7006,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7056,10 +7035,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7085,10 +7064,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7114,10 +7093,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7143,10 +7122,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7172,10 +7151,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7201,10 +7180,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7230,10 +7209,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7259,10 +7238,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7288,10 +7267,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7317,10 +7296,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7346,10 +7325,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7375,10 +7354,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7404,10 +7383,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7433,10 +7412,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7462,10 +7441,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7491,10 +7470,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7520,10 +7499,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7549,10 +7528,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7578,10 +7557,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7607,10 +7586,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7636,10 +7615,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7665,10 +7644,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>

--- a/xlsx/文化_intext.xlsx
+++ b/xlsx/文化_intext.xlsx
@@ -29,7 +29,7 @@
     <t>文化 (年號)</t>
   </si>
   <si>
-    <t>政策_政策_政治_文化</t>
+    <t>体育运动_体育运动_文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
@@ -1674,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1703,7 +1703,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1732,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1819,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1877,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1906,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1935,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1964,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1993,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2022,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2051,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2080,7 +2080,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2109,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2138,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2196,7 +2196,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2225,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2254,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2283,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2312,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2341,7 +2341,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2370,7 +2370,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2399,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2428,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2457,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2486,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2515,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2544,7 +2544,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2573,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2602,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2631,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2660,7 +2660,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2689,7 +2689,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2718,7 +2718,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2747,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2776,7 +2776,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2805,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2863,7 +2863,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2892,7 +2892,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2921,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2950,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2979,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3008,7 +3008,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3037,7 +3037,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3066,7 +3066,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3095,7 +3095,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3153,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3182,7 +3182,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3211,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3240,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3269,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3298,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3356,7 +3356,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3414,7 +3414,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3443,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3472,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3530,7 +3530,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3559,7 +3559,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3588,7 +3588,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3617,7 +3617,7 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3646,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3675,7 +3675,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3704,7 +3704,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3733,7 +3733,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3762,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3791,7 +3791,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3849,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3878,7 +3878,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3907,7 +3907,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3936,7 +3936,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3965,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3994,7 +3994,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4023,7 +4023,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4052,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4081,7 +4081,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4110,7 +4110,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4139,7 +4139,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4168,7 +4168,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4197,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4226,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4255,7 +4255,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4284,7 +4284,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4313,7 +4313,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4342,7 +4342,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4371,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4400,7 +4400,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4429,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4458,7 +4458,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4487,7 +4487,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4516,7 +4516,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4545,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4574,7 +4574,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4632,7 +4632,7 @@
         <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4661,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4690,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4719,7 +4719,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4748,7 +4748,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4777,7 +4777,7 @@
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4806,7 +4806,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4835,7 +4835,7 @@
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4864,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4893,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4922,7 +4922,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4951,7 +4951,7 @@
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4980,7 +4980,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5009,7 +5009,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5067,7 +5067,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5096,7 +5096,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5125,7 +5125,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5154,7 +5154,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5183,7 +5183,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5212,7 +5212,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5241,7 +5241,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5270,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5299,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5328,7 +5328,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5357,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5386,7 +5386,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5444,7 +5444,7 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5473,7 +5473,7 @@
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5502,7 +5502,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5531,7 +5531,7 @@
         <v>4</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5560,7 +5560,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5589,7 +5589,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5618,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5647,7 +5647,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5676,7 +5676,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5705,7 +5705,7 @@
         <v>4</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5734,7 +5734,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5763,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5792,7 +5792,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5821,7 +5821,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5850,7 +5850,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5879,7 +5879,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5908,7 +5908,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5937,7 +5937,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5966,7 +5966,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5995,7 +5995,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6024,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6053,7 +6053,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6082,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6111,7 +6111,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6140,7 +6140,7 @@
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6169,7 +6169,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6198,7 +6198,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6227,7 +6227,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6256,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6285,7 +6285,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6314,7 +6314,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6343,7 +6343,7 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6372,7 +6372,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6401,7 +6401,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6430,7 +6430,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6459,7 +6459,7 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6488,7 +6488,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6517,7 +6517,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6546,7 +6546,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6575,7 +6575,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6604,7 +6604,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6633,7 +6633,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6662,7 +6662,7 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6691,7 +6691,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6720,7 +6720,7 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6749,7 +6749,7 @@
         <v>4</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6778,7 +6778,7 @@
         <v>4</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6807,7 +6807,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6836,7 +6836,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6865,7 +6865,7 @@
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6894,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6923,7 +6923,7 @@
         <v>4</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6952,7 +6952,7 @@
         <v>4</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6981,7 +6981,7 @@
         <v>4</v>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7010,7 +7010,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7039,7 +7039,7 @@
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7068,7 +7068,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7097,7 +7097,7 @@
         <v>4</v>
       </c>
       <c r="I189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7126,7 +7126,7 @@
         <v>4</v>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7155,7 +7155,7 @@
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7184,7 +7184,7 @@
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7213,7 +7213,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7242,7 +7242,7 @@
         <v>4</v>
       </c>
       <c r="I194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7271,7 +7271,7 @@
         <v>4</v>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7329,7 +7329,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7358,7 +7358,7 @@
         <v>4</v>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7387,7 +7387,7 @@
         <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7416,7 +7416,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7445,7 +7445,7 @@
         <v>4</v>
       </c>
       <c r="I201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7474,7 +7474,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7503,7 +7503,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7532,7 +7532,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7561,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7590,7 +7590,7 @@
         <v>4</v>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7619,7 +7619,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7648,7 +7648,7 @@
         <v>4</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7677,7 +7677,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
